--- a/FinalProject.2025.08.10/Process1.AdminWorkbook/AdminWorkbook.xlsx
+++ b/FinalProject.2025.08.10/Process1.AdminWorkbook/AdminWorkbook.xlsx
@@ -2,16 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Program Team" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Allergies" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -51,7 +50,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -416,11 +415,15 @@
   </sheetPr>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="28.42578125" customWidth="1" min="10" max="10"/>
+    <col width="39.7109375" customWidth="1" min="11" max="11"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -676,14 +679,87 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col width="28.42578125" customWidth="1" min="10" max="10"/>
+    <col width="39.7109375" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Food Allergies</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Frodo</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Baggins</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Gluten, dairy</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Bilbo</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Baggins</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Peregrin</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Took</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/FinalProject.2025.08.10/Process1.AdminWorkbook/AdminWorkbook.xlsx
+++ b/FinalProject.2025.08.10/Process1.AdminWorkbook/AdminWorkbook.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
@@ -663,6 +663,222 @@
         </is>
       </c>
       <c r="K5" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Bilbo</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Baggins</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Party Planning</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Mithrandir</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>04/24/2022</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>10/31/2026</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>bbaggins@outlook.com</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>555-456-8764</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Bilbo</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Baggins</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Party Planning</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Mithrandir</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>04/24/2022</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>10/31/2026</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>bbaggins@outlook.com</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>555-456-8764</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Bilbo</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Baggins</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Party Planning</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Mithrandir</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>04/24/2022</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>10/31/2026</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>bbaggins@outlook.com</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>555-456-8764</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>n/a</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Peregrin</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Took</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Farming Consulting</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Meriadoc Brandybuck</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>07/16/2023</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>ptook@outlook.com</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>15553490293</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>555-777-7676</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>n/a</t>
         </is>
